--- a/ArduTrain/Protocol.xlsx
+++ b/ArduTrain/Protocol.xlsx
@@ -63,9 +63,6 @@
     <t>Res</t>
   </si>
   <si>
-    <t>RES : 0OK, 1 CRC error, 2,3,4… error OP</t>
-  </si>
-  <si>
     <t>PayLoad  = LEN</t>
   </si>
   <si>
@@ -114,7 +111,10 @@
     <t>long rand</t>
   </si>
   <si>
-    <t>2, TO antes de 25Bytes</t>
+    <t>3, TO antes de 25Bytes</t>
+  </si>
+  <si>
+    <t>RES : 0OK, 1 CRC error, 2 Padd error  ,3,4… error OP</t>
   </si>
 </sst>
 </file>
@@ -192,16 +192,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="15">
@@ -551,7 +551,7 @@
   <dimension ref="A2:AD12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AD6" sqref="AD6"/>
+      <selection activeCell="AD3" sqref="AD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -571,33 +571,33 @@
       <c r="E2" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
-      <c r="S2" s="3"/>
-      <c r="T2" s="3"/>
-      <c r="U2" s="3"/>
-      <c r="V2" s="3"/>
-      <c r="W2" s="3"/>
-      <c r="X2" s="3" t="s">
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="4"/>
+      <c r="S2" s="4"/>
+      <c r="T2" s="4"/>
+      <c r="U2" s="4"/>
+      <c r="V2" s="4"/>
+      <c r="W2" s="4"/>
+      <c r="X2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="Y2" s="3"/>
-      <c r="Z2" s="3"/>
-      <c r="AA2" s="3"/>
-      <c r="AB2" s="3"/>
+      <c r="Y2" s="4"/>
+      <c r="Z2" s="4"/>
+      <c r="AA2" s="4"/>
+      <c r="AB2" s="4"/>
     </row>
     <row r="3" spans="1:30">
       <c r="C3" t="s">
@@ -612,34 +612,34 @@
       <c r="F3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
-      <c r="S3" s="3"/>
-      <c r="T3" s="3"/>
-      <c r="U3" s="3"/>
-      <c r="V3" s="3"/>
-      <c r="W3" s="3"/>
-      <c r="X3" s="3" t="s">
+      <c r="G3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
+      <c r="T3" s="4"/>
+      <c r="U3" s="4"/>
+      <c r="V3" s="4"/>
+      <c r="W3" s="4"/>
+      <c r="X3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="Y3" s="3"/>
-      <c r="Z3" s="3"/>
-      <c r="AA3" s="3"/>
-      <c r="AB3" s="3"/>
+      <c r="Y3" s="4"/>
+      <c r="Z3" s="4"/>
+      <c r="AA3" s="4"/>
+      <c r="AB3" s="4"/>
       <c r="AD3" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:30">
@@ -755,7 +755,7 @@
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D6" t="s">
         <v>1</v>
@@ -766,36 +766,36 @@
       <c r="F6">
         <v>2</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="G6" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="5"/>
+      <c r="S6" s="5"/>
+      <c r="T6" s="5"/>
+      <c r="U6" s="5"/>
+      <c r="V6" s="5"/>
+      <c r="W6" s="5"/>
+      <c r="X6" s="5"/>
+      <c r="Y6" s="5"/>
+      <c r="Z6" s="5"/>
+      <c r="AA6" s="5"/>
+      <c r="AB6" s="5"/>
+      <c r="AD6" t="s">
         <v>30</v>
-      </c>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="L6" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="6"/>
-      <c r="P6" s="6"/>
-      <c r="Q6" s="6"/>
-      <c r="R6" s="6"/>
-      <c r="S6" s="6"/>
-      <c r="T6" s="6"/>
-      <c r="U6" s="6"/>
-      <c r="V6" s="6"/>
-      <c r="W6" s="6"/>
-      <c r="X6" s="6"/>
-      <c r="Y6" s="6"/>
-      <c r="Z6" s="6"/>
-      <c r="AA6" s="6"/>
-      <c r="AB6" s="6"/>
-      <c r="AD6" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:30">
@@ -814,34 +814,34 @@
       <c r="E7">
         <v>1</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-      <c r="P7" s="2"/>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="2"/>
-      <c r="S7" s="2"/>
-      <c r="T7" s="2"/>
-      <c r="U7" s="2"/>
-      <c r="V7" s="2"/>
-      <c r="W7" s="2"/>
-      <c r="X7" s="2"/>
-      <c r="Y7" s="2"/>
-      <c r="Z7" s="2"/>
+      <c r="F7" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="6"/>
+      <c r="S7" s="6"/>
+      <c r="T7" s="6"/>
+      <c r="U7" s="6"/>
+      <c r="V7" s="6"/>
+      <c r="W7" s="6"/>
+      <c r="X7" s="6"/>
+      <c r="Y7" s="6"/>
+      <c r="Z7" s="6"/>
       <c r="AA7" t="s">
         <v>9</v>
       </c>
       <c r="AB7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AD7" t="s">
         <v>12</v>
@@ -866,34 +866,34 @@
       <c r="F8">
         <v>0</v>
       </c>
-      <c r="G8" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
+      <c r="G8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
       <c r="K8" t="s">
         <v>9</v>
       </c>
-      <c r="L8" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="3"/>
-      <c r="S8" s="3"/>
-      <c r="T8" s="3"/>
-      <c r="U8" s="3"/>
-      <c r="V8" s="3"/>
-      <c r="W8" s="3"/>
-      <c r="X8" s="3"/>
-      <c r="Y8" s="3"/>
-      <c r="Z8" s="3"/>
-      <c r="AA8" s="3"/>
-      <c r="AB8" s="3"/>
+      <c r="L8" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4"/>
+      <c r="R8" s="4"/>
+      <c r="S8" s="4"/>
+      <c r="T8" s="4"/>
+      <c r="U8" s="4"/>
+      <c r="V8" s="4"/>
+      <c r="W8" s="4"/>
+      <c r="X8" s="4"/>
+      <c r="Y8" s="4"/>
+      <c r="Z8" s="4"/>
+      <c r="AA8" s="4"/>
+      <c r="AB8" s="4"/>
     </row>
     <row r="9" spans="1:30">
       <c r="A9" t="s">
@@ -903,7 +903,7 @@
         <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D9" t="s">
         <v>1</v>
@@ -911,35 +911,35 @@
       <c r="E9">
         <v>2</v>
       </c>
-      <c r="F9" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
+      <c r="F9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
       <c r="J9" t="s">
         <v>9</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
-      <c r="O9" s="3"/>
-      <c r="P9" s="3"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="3"/>
-      <c r="S9" s="3"/>
-      <c r="T9" s="3"/>
-      <c r="U9" s="3"/>
-      <c r="V9" s="3"/>
-      <c r="W9" s="3"/>
-      <c r="X9" s="3"/>
-      <c r="Y9" s="3"/>
-      <c r="Z9" s="3"/>
-      <c r="AA9" s="3"/>
-      <c r="AB9" s="3"/>
+      <c r="K9" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="4"/>
+      <c r="R9" s="4"/>
+      <c r="S9" s="4"/>
+      <c r="T9" s="4"/>
+      <c r="U9" s="4"/>
+      <c r="V9" s="4"/>
+      <c r="W9" s="4"/>
+      <c r="X9" s="4"/>
+      <c r="Y9" s="4"/>
+      <c r="Z9" s="4"/>
+      <c r="AA9" s="4"/>
+      <c r="AB9" s="4"/>
     </row>
     <row r="10" spans="1:30">
       <c r="A10" t="s">
@@ -949,7 +949,7 @@
         <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D10" t="s">
         <v>1</v>
@@ -960,36 +960,36 @@
       <c r="F10">
         <v>0</v>
       </c>
-      <c r="G10" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
+      <c r="G10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
       <c r="K10" t="s">
         <v>9</v>
       </c>
-      <c r="L10" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3"/>
-      <c r="P10" s="3"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="3"/>
-      <c r="S10" s="3"/>
-      <c r="T10" s="3"/>
-      <c r="U10" s="3"/>
-      <c r="V10" s="3"/>
-      <c r="W10" s="3"/>
-      <c r="X10" s="3"/>
-      <c r="Y10" s="3"/>
-      <c r="Z10" s="3"/>
-      <c r="AA10" s="3"/>
-      <c r="AB10" s="3"/>
+      <c r="L10" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4"/>
+      <c r="R10" s="4"/>
+      <c r="S10" s="4"/>
+      <c r="T10" s="4"/>
+      <c r="U10" s="4"/>
+      <c r="V10" s="4"/>
+      <c r="W10" s="4"/>
+      <c r="X10" s="4"/>
+      <c r="Y10" s="4"/>
+      <c r="Z10" s="4"/>
+      <c r="AA10" s="4"/>
+      <c r="AB10" s="4"/>
       <c r="AD10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:30">
@@ -1000,7 +1000,7 @@
         <v>4</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D11" t="s">
         <v>1</v>
@@ -1008,35 +1008,35 @@
       <c r="E11">
         <v>3</v>
       </c>
-      <c r="F11" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
-      <c r="O11" s="3"/>
-      <c r="P11" s="3"/>
-      <c r="Q11" s="4" t="s">
+      <c r="F11" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="R11" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="S11" s="3"/>
-      <c r="T11" s="3"/>
-      <c r="U11" s="3"/>
-      <c r="V11" s="3"/>
-      <c r="W11" s="3"/>
-      <c r="X11" s="3"/>
-      <c r="Y11" s="3"/>
-      <c r="Z11" s="3"/>
-      <c r="AA11" s="3"/>
-      <c r="AB11" s="3"/>
+      <c r="R11" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="S11" s="4"/>
+      <c r="T11" s="4"/>
+      <c r="U11" s="4"/>
+      <c r="V11" s="4"/>
+      <c r="W11" s="4"/>
+      <c r="X11" s="4"/>
+      <c r="Y11" s="4"/>
+      <c r="Z11" s="4"/>
+      <c r="AA11" s="4"/>
+      <c r="AB11" s="4"/>
     </row>
     <row r="12" spans="1:30">
       <c r="A12" t="s">
@@ -1046,7 +1046,7 @@
         <v>7</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D12" t="s">
         <v>1</v>
@@ -1057,40 +1057,44 @@
       <c r="F12">
         <v>0</v>
       </c>
-      <c r="G12" s="3" t="s">
+      <c r="G12" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="4"/>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="4"/>
+      <c r="R12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="S12" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="T12" s="4"/>
+      <c r="U12" s="4"/>
+      <c r="V12" s="4"/>
+      <c r="W12" s="4"/>
+      <c r="X12" s="4"/>
+      <c r="Y12" s="4"/>
+      <c r="Z12" s="4"/>
+      <c r="AA12" s="4"/>
+      <c r="AB12" s="4"/>
+      <c r="AD12" t="s">
         <v>27</v>
-      </c>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
-      <c r="O12" s="3"/>
-      <c r="P12" s="3"/>
-      <c r="Q12" s="3"/>
-      <c r="R12" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="S12" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="T12" s="3"/>
-      <c r="U12" s="3"/>
-      <c r="V12" s="3"/>
-      <c r="W12" s="3"/>
-      <c r="X12" s="3"/>
-      <c r="Y12" s="3"/>
-      <c r="Z12" s="3"/>
-      <c r="AA12" s="3"/>
-      <c r="AB12" s="3"/>
-      <c r="AD12" t="s">
-        <v>28</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="F2:W2"/>
+    <mergeCell ref="X2:AB2"/>
+    <mergeCell ref="G3:W3"/>
+    <mergeCell ref="X3:AB3"/>
     <mergeCell ref="F11:P11"/>
     <mergeCell ref="R11:AB11"/>
     <mergeCell ref="G12:Q12"/>
@@ -1104,13 +1108,8 @@
     <mergeCell ref="L10:AB10"/>
     <mergeCell ref="K9:AB9"/>
     <mergeCell ref="F7:Z7"/>
-    <mergeCell ref="F2:W2"/>
-    <mergeCell ref="X2:AB2"/>
-    <mergeCell ref="G3:W3"/>
-    <mergeCell ref="X3:AB3"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/ArduTrain/Protocol.xlsx
+++ b/ArduTrain/Protocol.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="39">
   <si>
     <t>Operación</t>
   </si>
@@ -115,13 +115,34 @@
   </si>
   <si>
     <t>RES : 0OK, 1 CRC error, 2 Padd error  ,3,4… error OP</t>
+  </si>
+  <si>
+    <t>SetChanel</t>
+  </si>
+  <si>
+    <t>Ch</t>
+  </si>
+  <si>
+    <t>Dir</t>
+  </si>
+  <si>
+    <t>Val</t>
+  </si>
+  <si>
+    <t>SetChanel R</t>
+  </si>
+  <si>
+    <t>Aler</t>
+  </si>
+  <si>
+    <t>Pading</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -152,13 +173,37 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -170,7 +215,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="15">
+  <cellStyleXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -186,8 +231,18 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -203,8 +258,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="15"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="15" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="15" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="16"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="16" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="15">
+  <cellStyles count="25">
+    <cellStyle name="Correcto" xfId="15" builtinId="26"/>
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="5" builtinId="8" hidden="1"/>
@@ -212,6 +278,10 @@
     <cellStyle name="Hipervínculo" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="23" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="6" builtinId="9" hidden="1"/>
@@ -219,6 +289,11 @@
     <cellStyle name="Hipervínculo visitado" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Neutral" xfId="16" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -548,10 +623,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:AD12"/>
+  <dimension ref="A2:AD14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AD3" sqref="AD3"/>
+      <selection activeCell="AC14" sqref="AC14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -993,50 +1068,53 @@
       </c>
     </row>
     <row r="11" spans="1:30">
-      <c r="A11" t="s">
+      <c r="A11" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D11" t="s">
-        <v>1</v>
-      </c>
-      <c r="E11">
+      <c r="D11" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E11" s="7">
         <v>3</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="F11" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="4"/>
-      <c r="O11" s="4"/>
-      <c r="P11" s="4"/>
-      <c r="Q11" s="2" t="s">
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="8"/>
+      <c r="P11" s="8"/>
+      <c r="Q11" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="R11" s="4" t="s">
+      <c r="R11" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="S11" s="4"/>
-      <c r="T11" s="4"/>
-      <c r="U11" s="4"/>
-      <c r="V11" s="4"/>
-      <c r="W11" s="4"/>
-      <c r="X11" s="4"/>
-      <c r="Y11" s="4"/>
-      <c r="Z11" s="4"/>
-      <c r="AA11" s="4"/>
-      <c r="AB11" s="4"/>
+      <c r="S11" s="8"/>
+      <c r="T11" s="8"/>
+      <c r="U11" s="8"/>
+      <c r="V11" s="8"/>
+      <c r="W11" s="8"/>
+      <c r="X11" s="8"/>
+      <c r="Y11" s="8"/>
+      <c r="Z11" s="8"/>
+      <c r="AA11" s="8"/>
+      <c r="AB11" s="8"/>
+      <c r="AC11" s="12">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:30">
       <c r="A12" t="s">
@@ -1089,14 +1167,123 @@
         <v>27</v>
       </c>
     </row>
+    <row r="13" spans="1:30">
+      <c r="A13" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E13" s="10">
+        <v>4</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="K13" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="L13" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="M13" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="N13" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="O13" s="11"/>
+      <c r="P13" s="11"/>
+      <c r="Q13" s="11"/>
+      <c r="R13" s="11"/>
+      <c r="S13" s="11"/>
+      <c r="T13" s="11"/>
+      <c r="U13" s="11"/>
+      <c r="V13" s="11"/>
+      <c r="W13" s="11"/>
+      <c r="X13" s="11"/>
+      <c r="Y13" s="11"/>
+      <c r="Z13" s="11"/>
+      <c r="AA13" s="11"/>
+      <c r="AB13" s="11"/>
+      <c r="AC13" s="12">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30">
+      <c r="A14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" t="s">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>4</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" t="s">
+        <v>33</v>
+      </c>
+      <c r="L14" t="s">
+        <v>34</v>
+      </c>
+      <c r="M14" t="s">
+        <v>35</v>
+      </c>
+      <c r="N14" t="s">
+        <v>37</v>
+      </c>
+      <c r="O14" t="s">
+        <v>9</v>
+      </c>
+      <c r="P14" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q14" s="4"/>
+      <c r="R14" s="4"/>
+      <c r="S14" s="4"/>
+      <c r="T14" s="4"/>
+      <c r="U14" s="4"/>
+      <c r="V14" s="4"/>
+      <c r="W14" s="4"/>
+      <c r="X14" s="4"/>
+      <c r="Y14" s="4"/>
+      <c r="Z14" s="4"/>
+      <c r="AA14" s="4"/>
+      <c r="AB14" s="4"/>
+    </row>
   </sheetData>
-  <mergeCells count="17">
-    <mergeCell ref="F2:W2"/>
-    <mergeCell ref="X2:AB2"/>
-    <mergeCell ref="G3:W3"/>
-    <mergeCell ref="X3:AB3"/>
-    <mergeCell ref="F11:P11"/>
-    <mergeCell ref="R11:AB11"/>
+  <mergeCells count="21">
+    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="N13:AB13"/>
+    <mergeCell ref="G14:J14"/>
+    <mergeCell ref="P14:AB14"/>
     <mergeCell ref="G12:Q12"/>
     <mergeCell ref="S12:AB12"/>
     <mergeCell ref="G6:J6"/>
@@ -1108,8 +1295,15 @@
     <mergeCell ref="L10:AB10"/>
     <mergeCell ref="K9:AB9"/>
     <mergeCell ref="F7:Z7"/>
+    <mergeCell ref="F2:W2"/>
+    <mergeCell ref="X2:AB2"/>
+    <mergeCell ref="G3:W3"/>
+    <mergeCell ref="X3:AB3"/>
+    <mergeCell ref="F11:P11"/>
+    <mergeCell ref="R11:AB11"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
